--- a/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>19,96%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,96%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,08; 8,34</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 8,18</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 3,89</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-22,2; 86,56</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,04; 108,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,78; 21,91</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,26%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,81; 11,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 9,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 11,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 3,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,32; 124,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 70,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,15; 84,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,27; 27,36</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 12,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 11,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 6,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 7,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 113,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,29; 77,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,42; 48,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,06; 37,04</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 10,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 9,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 11,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; 5,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 90,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,05; 70,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,69; 76,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,17; 31,88</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,66%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 9,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,69; 18,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,63; 15,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 13,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,25; 154,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,22; 158,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,22; 184,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,6; 88,35</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,67%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 10,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,46; 7,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 9,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,51; 1,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,69; 82,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,72; 37,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,41; 81,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,45; 4,88</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,9%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 8,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 9,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 3,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 40,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 65,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 56,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,32; 31,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 234,42</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,93%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 5,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 6,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 6,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 9,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,31; 48,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,93; 53,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; 43,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,59; 65,65</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,0%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 5,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 6,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 4,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 11,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,09; 48,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,42; 39,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,48; 34,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,17; 59,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,96%</t>
+          <t>-4,66%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 9,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 3,89</t>
+          <t>-6,34; 4,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,14; 101,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 21,91</t>
+          <t>-27,99; 29,99</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>-1,12%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 3,55</t>
+          <t>-4,68; 3,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 27,36</t>
+          <t>-26,02; 31,79</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>10,37%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 7,14</t>
+          <t>-3,31; 7,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 37,04</t>
+          <t>-13,14; 39,33</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>-12,38%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,15</t>
+          <t>0,26; 12,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 5,53</t>
+          <t>-12,42; 3,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 70,51</t>
+          <t>0,67; 83,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 31,88</t>
+          <t>-50,84; 18,65</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>38,66%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 13,22</t>
+          <t>0,88; 13,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 88,35</t>
+          <t>4,01; 90,37</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,67%</t>
+          <t>-14,16%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 1,14</t>
+          <t>-9,91; 1,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 4,88</t>
+          <t>-31,99; 7,0</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>21,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>120,14%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 40,55</t>
+          <t>0,56; 54,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 234,42</t>
+          <t>3,31; 334,24</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>64,96%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,8; 9,35</t>
+          <t>2,65; 18,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,59; 65,65</t>
+          <t>13,86; 297,29</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>39,12%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 11,23</t>
+          <t>1,44; 20,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,17; 59,29</t>
+          <t>7,12; 135,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 8,34</t>
+          <t>-3,75; 7,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 9,46</t>
+          <t>-2,59; 10,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 8,18</t>
+          <t>-3,13; 7,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 4,78</t>
+          <t>-6,62; 4,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 86,56</t>
+          <t>-24,29; 78,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 101,34</t>
+          <t>-18,88; 107,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 108,28</t>
+          <t>-24,68; 96,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,99; 29,99</t>
+          <t>-27,9; 25,65</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 11,08</t>
+          <t>2,81; 10,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 9,6</t>
+          <t>-0,72; 9,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 11,67</t>
+          <t>1,37; 11,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 3,89</t>
+          <t>-4,28; 3,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 124,0</t>
+          <t>21,93; 119,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 70,73</t>
+          <t>-3,93; 69,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 84,6</t>
+          <t>6,83; 85,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 31,79</t>
+          <t>-24,25; 32,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 12,0</t>
+          <t>0,02; 11,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 11,18</t>
+          <t>-1,81; 11,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 6,25</t>
+          <t>-5,36; 5,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 7,32</t>
+          <t>-2,9; 7,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 113,02</t>
+          <t>-0,07; 103,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 77,5</t>
+          <t>-8,17; 74,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 48,97</t>
+          <t>-30,05; 47,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 39,33</t>
+          <t>-11,82; 38,69</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 10,1</t>
+          <t>0,08; 10,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 12,73</t>
+          <t>0,12; 11,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 11,16</t>
+          <t>-1,32; 10,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 3,33</t>
+          <t>-10,85; 4,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 90,67</t>
+          <t>0,69; 101,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 83,38</t>
+          <t>0,23; 75,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 76,32</t>
+          <t>-6,78; 74,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 18,65</t>
+          <t>-48,86; 25,81</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 9,39</t>
+          <t>-3,24; 8,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 18,56</t>
+          <t>3,25; 19,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 15,03</t>
+          <t>2,05; 15,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 13,42</t>
+          <t>1,41; 13,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 154,19</t>
+          <t>-29,03; 141,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,22; 158,51</t>
+          <t>16,32; 167,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 184,43</t>
+          <t>11,82; 193,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 90,37</t>
+          <t>6,26; 87,15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 10,52</t>
+          <t>-3,37; 9,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 7,22</t>
+          <t>-6,68; 6,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 9,01</t>
+          <t>-2,77; 9,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 1,61</t>
+          <t>-9,49; 1,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 82,12</t>
+          <t>-18,21; 77,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 37,91</t>
+          <t>-25,52; 36,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 81,3</t>
+          <t>-17,81; 82,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 7,0</t>
+          <t>-30,59; 7,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 8,33</t>
+          <t>-0,02; 8,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 9,24</t>
+          <t>0,24; 9,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,93</t>
+          <t>-4,64; 3,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 54,51</t>
+          <t>0,74; 48,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 65,98</t>
+          <t>-1,65; 68,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 56,94</t>
+          <t>-0,2; 57,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 31,57</t>
+          <t>-27,99; 24,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 334,24</t>
+          <t>3,17; 327,33</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 5,03</t>
+          <t>-2,15; 4,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 6,45</t>
+          <t>-1,52; 5,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,2</t>
+          <t>-1,47; 6,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,65; 18,06</t>
+          <t>2,55; 17,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 48,09</t>
+          <t>-15,82; 49,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 53,25</t>
+          <t>-10,02; 48,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 43,22</t>
+          <t>-8,29; 45,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,86; 297,29</t>
+          <t>12,8; 257,17</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,82</t>
+          <t>2,28; 5,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,19</t>
+          <t>2,25; 6,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,79</t>
+          <t>1,2; 4,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,44; 20,57</t>
+          <t>1,57; 23,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,09; 48,49</t>
+          <t>17,1; 47,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,42; 39,26</t>
+          <t>12,74; 39,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,48; 34,14</t>
+          <t>7,09; 33,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,12; 135,21</t>
+          <t>8,5; 150,83</t>
         </is>
       </c>
     </row>
